--- a/dataset/Normalitas Kolmogorov.xlsx
+++ b/dataset/Normalitas Kolmogorov.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3426CDB-9E2E-452B-8ABE-5DDE44E94331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A78D8-7804-4F9C-B16E-12EABF85AAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,239 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{3E09BB0D-992B-4BF6-B114-7C6A5585FDF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+1
+dan copas sd A53</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{3A725880-624C-42C8-8780-9F82C2844036}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=B6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{BEC31B20-2CF2-4C2A-8238-E890767EF308}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=C6/J$6
+ dan kemudian Scroll Down copas  sd A53</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{E636712C-74D1-489D-A767-3C471ACD82C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=STANDARDIZE(A6,J$7,J$8) 
+dan kemudian Scroll Down copas  sd A53</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{2EE076CD-E8D3-485C-BE94-B1B34AE6050C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=NORMSDIST(E6) 
+dan kemudian Scroll Down copas  sd A53</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{1F9409BA-F48E-4A0A-9FFF-CC5B11F37590}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=ABS(F6-D6) 
+dan kemudian Scroll Down copas  sd A53
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J6" authorId="0" shapeId="0" xr:uid="{602E4218-4841-42E0-87FC-F145FD9727EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=COUNT(A5:A52)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{4E8864B0-A3F5-4063-BA21-703BA3EE4F1D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=B7+C6 
+dan kemudian scroll down copas sd A53</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{FC36349A-247B-4CF0-B594-26372219681C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bakti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=AVERAGE(A6:A53)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{6C9429F8-9C2A-4798-94C4-732FDA7BAD44}">
       <text>
         <r>
           <rPr>
@@ -57,11 +289,11 @@
           </rPr>
           <t xml:space="preserve">
 Ketikkan rumus dibawah pada cell ini
-=COUNT(A5:A52)</t>
+= STDEV(A6:A53)                                                                </t>
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{FC36349A-247B-4CF0-B594-26372219681C}">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{7F6773BC-BE41-4F84-8583-0269C44562FC}">
       <text>
         <r>
           <rPr>
@@ -82,7 +314,56 @@
           </rPr>
           <t xml:space="preserve">
 Ketikkan rumus dibawah pada cell ini
-=AVERAGE(A6:A53)</t>
+=MAX(G6:G53)                                                                                                                                                                       </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{9BF3F301-8610-4A2E-ABFA-DAD0E85243A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ketikkan rumus dibawah pada cell ini
+=1.36/SQRT(J6)                                                               </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{91F57C30-83E6-4037-A08A-38E0A50FCB88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ini menunjukan data normal atau tidak</t>
         </r>
       </text>
     </comment>
@@ -276,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,16 +648,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,13 +663,127 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,7 +1174,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>C7: =B7+C6 dan copas sd A53</a:t>
+            <a:t>C7: =B7+C6 dan kemudian Scroll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Down </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>copas d A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -790,7 +1212,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>D6: =C6/J$6 dan copas sd A53</a:t>
+            <a:t>D6: =C6/J$6 dan kemudian Scroll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Down </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>copas  sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -804,7 +1250,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>E6: =STANDARDIZE(A6,J$7,J$8) dan copas sd A53</a:t>
+            <a:t>E6: =STANDARDIZE(A6,J$7,J$8) dan kemudian Scroll Down copas  sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -818,7 +1264,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>F6: =NORMSDIST(E6) dan copas sd A53</a:t>
+            <a:t>F6: =NORMSDIST(E6) dan kemudian Scroll Down copas  sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -832,7 +1278,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>G6: =ABS(F6-D6) dan copas sd A53.</a:t>
+            <a:t>G6: =ABS(F6-D6)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dan kemudian Scroll Down copas  sd A53</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1367,7 +1837,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1383,44 +1853,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1456,29 +1926,12 @@
       <c r="A6" s="2">
         <v>0.112</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <f>B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="e">
-        <f>C6/J$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4" t="e">
-        <f>STANDARDIZE(A6,J$7,J$8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" s="4" t="e">
-        <f t="shared" ref="F6" si="0">NORMSDIST(E6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="4" t="e">
-        <f>ABS(F6-D6)</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="8"/>
       <c r="I6" s="4" t="s">
         <v>9</v>
@@ -1531,7 +1984,7 @@
       <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1560,11 +2013,11 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="16" t="str">
         <f>IF(J9&lt;J10,"Normal","Tidak Normal")</f>
         <v>Tidak Normal</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
